--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJTLiveProjet\ERP_HybridFrameWork\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{471C769F-53B3-4307-9480-A46E6E455A53}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2245401B-56C1-4ECF-8AB4-AB65827C4F59}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="10380" windowWidth="19380" xWindow="-90" xr2:uid="{19118503-F649-4B1D-8A84-EE55C93F5781}" yWindow="-90"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
     <sheet name="ApplicationLogin" r:id="rId2" sheetId="2"/>
+    <sheet name="Stockcategories" r:id="rId3" sheetId="3"/>
+    <sheet name="supplier" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="107">
   <si>
     <t>TCID</t>
   </si>
@@ -173,6 +175,174 @@
   </si>
   <si>
     <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>Wait for Stock items link</t>
+  </si>
+  <si>
+    <t>//a[.='Stock Items ']</t>
+  </si>
+  <si>
+    <t>Mouse to Stcokitem and categories</t>
+  </si>
+  <si>
+    <t>mouseClick</t>
+  </si>
+  <si>
+    <t>Wait for Add +Icon</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Click Add +Icon</t>
+  </si>
+  <si>
+    <t>Wait for Category Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>MobilePhones</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>x_Category_Name</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Wait for Confirm Ok Button</t>
+  </si>
+  <si>
+    <t>Click ok to Confirm button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for Alert ok button</t>
+  </si>
+  <si>
+    <t>Click Alert ok button</t>
+  </si>
+  <si>
+    <t>Validate table</t>
+  </si>
+  <si>
+    <t>stockTable</t>
+  </si>
+  <si>
+    <t>//button[@class='ajs-button btn btn-primary']</t>
+  </si>
+  <si>
+    <t>Wait for Supplier link</t>
+  </si>
+  <si>
+    <t>Click supplier link</t>
+  </si>
+  <si>
+    <t>(//a[.='Suppliers'])[2]</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t>Capture Supplier Number</t>
+  </si>
+  <si>
+    <t>captureData</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Number']</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Jio Reliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Address </t>
+  </si>
+  <si>
+    <t>Ameerpert</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Hydrerabad</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter Contact person</t>
+  </si>
+  <si>
+    <t>Ranga</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>Enter Notes</t>
+  </si>
+  <si>
+    <t>Jio Sims are supplied</t>
+  </si>
+  <si>
+    <t>Click add Button</t>
+  </si>
+  <si>
+    <t>Table validation</t>
+  </si>
+  <si>
+    <t>supplierTable</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>x_Address</t>
+  </si>
+  <si>
+    <t>x_Country</t>
+  </si>
+  <si>
+    <t>x_Contact_Person</t>
+  </si>
+  <si>
+    <t>x_City</t>
+  </si>
+  <si>
+    <t>x_Phone_Number</t>
+  </si>
+  <si>
+    <t>x__Email</t>
+  </si>
+  <si>
+    <t>x_Mobile_Number</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
   </si>
   <si>
     <t>Pass</t>
@@ -186,7 +356,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="120" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,13 +511,565 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -404,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -434,6 +1156,98 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -751,7 +1565,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -787,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s" s="24">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.75">
@@ -798,10 +1612,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s" s="25">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="62">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.75">
@@ -812,10 +1626,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="26">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="118">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
@@ -828,8 +1642,8 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="27">
-        <v>50</v>
+      <c r="D5" t="s" s="119">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
@@ -842,8 +1656,8 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="28">
-        <v>50</v>
+      <c r="D6" t="s" s="120">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +1671,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -906,7 +1720,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s" s="5">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.75">
@@ -926,7 +1740,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s" s="7">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.75">
@@ -946,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s" s="9">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.75">
@@ -966,7 +1780,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s" s="11">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.75">
@@ -986,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="F6" t="s" s="13">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.75">
@@ -1006,7 +1820,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s" s="15">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.75">
@@ -1026,7 +1840,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s" s="17">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.75">
@@ -1046,7 +1860,7 @@
         <v>45</v>
       </c>
       <c r="F9" t="s" s="19">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.75">
@@ -1066,7 +1880,7 @@
         <v>23</v>
       </c>
       <c r="F10" t="s" s="21">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.75">
@@ -1086,10 +1900,1037 @@
         <v>23</v>
       </c>
       <c r="F11" t="s" s="23">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377C01F9-A1DB-42F3-AEA7-2FDA2C0A3E89}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.31640625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.6328125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.76953125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7265625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6796875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s" s="25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="27">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="31">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="33">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s" s="39">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="41">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s" s="43">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s" s="47">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="51">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s" s="53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="55">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s" s="57">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s" s="59">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s" s="61">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FA8907-E03D-4468-8C25-06F2D65E82AA}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.76953125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.6328125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.76953125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7265625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6796875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s" s="63">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="65">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="67">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="69">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="71">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="73">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="75">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s" s="77">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="79">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s" s="81">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="83">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="85">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s" s="87">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s" s="89">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s" s="91">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s" s="93">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s" s="95">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8765432123</v>
+      </c>
+      <c r="F19" t="s" s="97">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s" s="99">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8765432345</v>
+      </c>
+      <c r="F21" t="s" s="101">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s" s="103">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s" s="105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s" s="109">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="111">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s" s="113">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s" s="115">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s" s="117">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E20" xr:uid="{8ADBE696-EA2F-4B68-9399-02B255803BC4}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>